--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/LOACC_005_LoansAndAccrualsReport_V1.3.4.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/LOACC_005_LoansAndAccrualsReport_V1.3.4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="968" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="974" xml:space="preserve">
   <si>
     <t>Data Type</t>
   </si>
@@ -2422,6 +2422,24 @@
   </si>
   <si>
     <t>3001349        </t>
+  </si>
+  <si>
+    <t>1001705     </t>
+  </si>
+  <si>
+    <t>3001363        </t>
+  </si>
+  <si>
+    <t>1001713     </t>
+  </si>
+  <si>
+    <t>3001360        </t>
+  </si>
+  <si>
+    <t>1001739     </t>
+  </si>
+  <si>
+    <t>3001373        </t>
   </si>
   <si>
     <t>Facility Currency Code</t>
@@ -3185,7 +3203,7 @@
 
 <file path=xl/worksheets/Sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L444"/>
+  <dimension ref="A1:L447"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection/>
@@ -8319,7 +8337,7 @@
         <v>13</v>
       </c>
       <c r="C136" s="24">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="D136" s="23" t="s">
         <v>28</v>
@@ -20007,6 +20025,112 @@
       </c>
       <c r="L444" s="25">
         <v>60000000.000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="A445" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B445" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C445" s="24">
+        <v>44823</v>
+      </c>
+      <c r="D445" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E445" s="22"/>
+      <c r="F445" s="22"/>
+      <c r="G445" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="H445" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="I445" s="22"/>
+      <c r="J445" s="22"/>
+      <c r="K445" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L445" s="25">
+        <v>0.000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B446" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C446" s="24">
+        <v>44823</v>
+      </c>
+      <c r="D446" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E446" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F446" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G446" s="23" t="s">
+        <v>804</v>
+      </c>
+      <c r="H446" s="23" t="s">
+        <v>805</v>
+      </c>
+      <c r="I446" s="24">
+        <v>44823</v>
+      </c>
+      <c r="J446" s="24">
+        <v>45188</v>
+      </c>
+      <c r="K446" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L446" s="25">
+        <v>200000.000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="A447" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B447" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C447" s="24">
+        <v>44823</v>
+      </c>
+      <c r="D447" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E447" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F447" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G447" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="H447" s="23" t="s">
+        <v>807</v>
+      </c>
+      <c r="I447" s="24">
+        <v>44823</v>
+      </c>
+      <c r="J447" s="24">
+        <v>45188</v>
+      </c>
+      <c r="K447" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L447" s="25">
+        <v>200000.000</v>
       </c>
     </row>
   </sheetData>
@@ -20092,84 +20216,84 @@
         <v>9</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="Y1" s="27" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="AC1" s="27" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="AD1" s="27" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="AH1" s="27" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="AI1" s="27" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="28" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>13</v>
@@ -20187,10 +20311,10 @@
         <v>24</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="I2" s="20">
         <v>43945</v>
@@ -20205,19 +20329,19 @@
         <v>99230.770</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R2" s="19" t="s">
         <v>19</v>
@@ -20235,7 +20359,7 @@
         <v>0.060000000000</v>
       </c>
       <c r="W2" s="19" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X2" s="20">
         <v>43945</v>
@@ -20252,7 +20376,7 @@
         <v>43976</v>
       </c>
       <c r="AD2" s="28" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE2" s="35">
         <v>-96.02</v>
@@ -20266,7 +20390,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>13</v>
@@ -20287,7 +20411,7 @@
         <v>274</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="I3" s="24">
         <v>43984</v>
@@ -20302,19 +20426,19 @@
         <v>200000000.000</v>
       </c>
       <c r="M3" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="N3" s="23" t="s">
-        <v>838</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>831</v>
-      </c>
       <c r="P3" s="23" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="Q3" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R3" s="23" t="s">
         <v>19</v>
@@ -20332,13 +20456,13 @@
         <v>0.005000000000</v>
       </c>
       <c r="W3" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X3" s="24">
         <v>44019</v>
       </c>
       <c r="Y3" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z3" s="24">
         <v>44050</v>
@@ -20353,7 +20477,7 @@
         <v>44026</v>
       </c>
       <c r="AD3" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE3" s="43">
         <v>-1610.96</v>
@@ -20367,7 +20491,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>13</v>
@@ -20385,10 +20509,10 @@
         <v>24</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="I4" s="24">
         <v>44018</v>
@@ -20403,19 +20527,19 @@
         <v>59400000.000</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q4" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R4" s="23" t="s">
         <v>19</v>
@@ -20433,13 +20557,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W4" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X4" s="24">
         <v>44049</v>
       </c>
       <c r="Y4" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z4" s="24">
         <v>44081</v>
@@ -20454,7 +20578,7 @@
         <v>44144</v>
       </c>
       <c r="AD4" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE4" s="43">
         <v>-997.81</v>
@@ -20468,7 +20592,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>13</v>
@@ -20486,10 +20610,10 @@
         <v>24</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="I5" s="24">
         <v>44018</v>
@@ -20504,19 +20628,19 @@
         <v>9824000.000</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q5" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R5" s="23" t="s">
         <v>19</v>
@@ -20534,13 +20658,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W5" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X5" s="24">
         <v>44018</v>
       </c>
       <c r="Y5" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z5" s="24">
         <v>44049</v>
@@ -20555,7 +20679,7 @@
         <v>44049</v>
       </c>
       <c r="AD5" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE5" s="43">
         <v>41.08</v>
@@ -20569,7 +20693,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>13</v>
@@ -20587,10 +20711,10 @@
         <v>24</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="I6" s="24">
         <v>44018</v>
@@ -20605,19 +20729,19 @@
         <v>9824000.000</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q6" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R6" s="23" t="s">
         <v>19</v>
@@ -20635,13 +20759,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W6" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X6" s="24">
         <v>44018</v>
       </c>
       <c r="Y6" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z6" s="24">
         <v>44049</v>
@@ -20656,7 +20780,7 @@
         <v>44081</v>
       </c>
       <c r="AD6" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE6" s="43">
         <v>821.92</v>
@@ -20670,7 +20794,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>13</v>
@@ -20688,10 +20812,10 @@
         <v>24</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="I7" s="24">
         <v>44018</v>
@@ -20706,19 +20830,19 @@
         <v>9824000.000</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q7" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R7" s="23" t="s">
         <v>19</v>
@@ -20736,13 +20860,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W7" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X7" s="24">
         <v>44049</v>
       </c>
       <c r="Y7" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z7" s="24">
         <v>44081</v>
@@ -20757,7 +20881,7 @@
         <v>44111</v>
       </c>
       <c r="AD7" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE7" s="43">
         <v>-1906.85</v>
@@ -20771,7 +20895,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>13</v>
@@ -20789,10 +20913,10 @@
         <v>43</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="I8" s="24">
         <v>44209</v>
@@ -20807,19 +20931,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q8" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R8" s="23" t="s">
         <v>19</v>
@@ -20837,13 +20961,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W8" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X8" s="24">
         <v>44209</v>
       </c>
       <c r="Y8" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z8" s="24">
         <v>44242</v>
@@ -20858,7 +20982,7 @@
         <v>44242</v>
       </c>
       <c r="AD8" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE8" s="43">
         <v>40.99</v>
@@ -20872,7 +20996,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>13</v>
@@ -20890,10 +21014,10 @@
         <v>24</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="I9" s="24">
         <v>44211</v>
@@ -20908,19 +21032,19 @@
         <v>100000.000</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="Q9" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R9" s="23" t="s">
         <v>19</v>
@@ -20938,7 +21062,7 @@
         <v>0.060000000000</v>
       </c>
       <c r="W9" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X9" s="24">
         <v>44211</v>
@@ -20955,7 +21079,7 @@
         <v>44242</v>
       </c>
       <c r="AD9" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE9" s="43">
         <v>123.56</v>
@@ -20969,7 +21093,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>13</v>
@@ -20987,10 +21111,10 @@
         <v>24</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="I10" s="24">
         <v>44214</v>
@@ -21005,19 +21129,19 @@
         <v>99166.670</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="N10" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="P10" s="23" t="s">
         <v>838</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>831</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>832</v>
-      </c>
       <c r="Q10" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R10" s="23" t="s">
         <v>19</v>
@@ -21035,7 +21159,7 @@
         <v>0.060000000000</v>
       </c>
       <c r="W10" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X10" s="24">
         <v>44214</v>
@@ -21052,7 +21176,7 @@
         <v>44245</v>
       </c>
       <c r="AD10" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE10" s="43">
         <v>123.38</v>
@@ -21066,7 +21190,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>13</v>
@@ -21084,10 +21208,10 @@
         <v>43</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="I11" s="24">
         <v>44214</v>
@@ -21102,19 +21226,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q11" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R11" s="23" t="s">
         <v>19</v>
@@ -21132,13 +21256,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W11" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X11" s="24">
         <v>44214</v>
       </c>
       <c r="Y11" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z11" s="24">
         <v>44245</v>
@@ -21153,7 +21277,7 @@
         <v>44245</v>
       </c>
       <c r="AD11" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE11" s="43">
         <v>-2054.8</v>
@@ -21167,7 +21291,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>13</v>
@@ -21185,10 +21309,10 @@
         <v>24</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="I12" s="24">
         <v>44214</v>
@@ -21203,19 +21327,19 @@
         <v>99230.770</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="Q12" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R12" s="23" t="s">
         <v>19</v>
@@ -21233,7 +21357,7 @@
         <v>0.060000000000</v>
       </c>
       <c r="W12" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X12" s="24">
         <v>44214</v>
@@ -21250,7 +21374,7 @@
         <v>44245</v>
       </c>
       <c r="AD12" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE12" s="43">
         <v>121.66</v>
@@ -21264,7 +21388,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>13</v>
@@ -21282,10 +21406,10 @@
         <v>43</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="I13" s="24">
         <v>44222</v>
@@ -21300,19 +21424,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R13" s="23" t="s">
         <v>19</v>
@@ -21330,13 +21454,13 @@
         <v>0.000200000000</v>
       </c>
       <c r="W13" s="23" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="X13" s="24">
         <v>44222</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z13" s="24">
         <v>44253</v>
@@ -21351,7 +21475,7 @@
         <v>44253</v>
       </c>
       <c r="AD13" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE13" s="43">
         <v>28.06</v>
@@ -21365,7 +21489,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>13</v>
@@ -21383,10 +21507,10 @@
         <v>24</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="I14" s="24">
         <v>44224</v>
@@ -21401,19 +21525,19 @@
         <v>100000.000</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="Q14" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R14" s="23" t="s">
         <v>19</v>
@@ -21431,7 +21555,7 @@
         <v>0.060000000000</v>
       </c>
       <c r="W14" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X14" s="24">
         <v>44224</v>
@@ -21448,7 +21572,7 @@
         <v>44256</v>
       </c>
       <c r="AD14" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE14" s="43">
         <v>-12.6</v>
@@ -21462,7 +21586,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>13</v>
@@ -21480,10 +21604,10 @@
         <v>43</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="I15" s="24">
         <v>44224</v>
@@ -21498,19 +21622,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q15" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R15" s="23" t="s">
         <v>19</v>
@@ -21528,13 +21652,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W15" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X15" s="24">
         <v>44224</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z15" s="24">
         <v>44253</v>
@@ -21549,7 +21673,7 @@
         <v>44253</v>
       </c>
       <c r="AD15" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE15" s="43">
         <v>1068.49</v>
@@ -21563,7 +21687,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>13</v>
@@ -21581,10 +21705,10 @@
         <v>29</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="I16" s="24">
         <v>44255</v>
@@ -21599,19 +21723,19 @@
         <v>100000.000</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="N16" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="P16" s="23" t="s">
         <v>838</v>
       </c>
-      <c r="O16" s="23" t="s">
-        <v>831</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>832</v>
-      </c>
       <c r="Q16" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R16" s="23" t="s">
         <v>19</v>
@@ -21629,7 +21753,7 @@
         <v>0.050000000000</v>
       </c>
       <c r="W16" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X16" s="24">
         <v>44255</v>
@@ -21646,7 +21770,7 @@
         <v>44263</v>
       </c>
       <c r="AD16" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE16" s="43">
         <v>10.96</v>
@@ -21660,7 +21784,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>13</v>
@@ -21678,10 +21802,10 @@
         <v>24</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="I17" s="24">
         <v>44256</v>
@@ -21696,19 +21820,19 @@
         <v>99230.770</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R17" s="23" t="s">
         <v>19</v>
@@ -21726,7 +21850,7 @@
         <v>0.060000000000</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X17" s="24">
         <v>44256</v>
@@ -21743,7 +21867,7 @@
         <v>44287</v>
       </c>
       <c r="AD17" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE17" s="43">
         <v>121.66</v>
@@ -21757,7 +21881,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>13</v>
@@ -21775,10 +21899,10 @@
         <v>43</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="I18" s="24">
         <v>44257</v>
@@ -21793,19 +21917,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q18" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R18" s="23" t="s">
         <v>19</v>
@@ -21823,13 +21947,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W18" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X18" s="24">
         <v>44257</v>
       </c>
       <c r="Y18" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z18" s="24">
         <v>44292</v>
@@ -21844,7 +21968,7 @@
         <v>44292</v>
       </c>
       <c r="AD18" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE18" s="43">
         <v>2015.24</v>
@@ -21858,7 +21982,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>13</v>
@@ -21876,10 +22000,10 @@
         <v>24</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="I19" s="24">
         <v>44265</v>
@@ -21894,19 +22018,19 @@
         <v>99230.770</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="N19" s="23" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="Q19" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R19" s="23" t="s">
         <v>19</v>
@@ -21924,7 +22048,7 @@
         <v>0.060000000000</v>
       </c>
       <c r="W19" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X19" s="24">
         <v>44265</v>
@@ -21941,7 +22065,7 @@
         <v>44298</v>
       </c>
       <c r="AD19" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE19" s="43">
         <v>68.79</v>
@@ -21955,7 +22079,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>13</v>
@@ -21973,10 +22097,10 @@
         <v>43</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="I20" s="24">
         <v>44265</v>
@@ -21991,19 +22115,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R20" s="23" t="s">
         <v>19</v>
@@ -22021,13 +22145,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W20" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X20" s="24">
         <v>44265</v>
       </c>
       <c r="Y20" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z20" s="24">
         <v>44298</v>
@@ -22042,7 +22166,7 @@
         <v>44298</v>
       </c>
       <c r="AD20" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE20" s="43">
         <v>68.49</v>
@@ -22056,7 +22180,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>13</v>
@@ -22074,10 +22198,10 @@
         <v>24</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="I21" s="24">
         <v>44266</v>
@@ -22092,19 +22216,19 @@
         <v>100000.000</v>
       </c>
       <c r="M21" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="N21" s="23" t="s">
         <v>898</v>
       </c>
-      <c r="N21" s="23" t="s">
-        <v>892</v>
-      </c>
       <c r="O21" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="Q21" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R21" s="23" t="s">
         <v>19</v>
@@ -22122,7 +22246,7 @@
         <v>0.050000000000</v>
       </c>
       <c r="W21" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X21" s="24">
         <v>44266</v>
@@ -22139,7 +22263,7 @@
         <v>44298</v>
       </c>
       <c r="AD21" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE21" s="43">
         <v>73.98</v>
@@ -22153,7 +22277,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>13</v>
@@ -22171,10 +22295,10 @@
         <v>43</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="I22" s="24">
         <v>44279</v>
@@ -22189,19 +22313,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="N22" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O22" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q22" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R22" s="23" t="s">
         <v>19</v>
@@ -22219,13 +22343,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W22" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X22" s="24">
         <v>44279</v>
       </c>
       <c r="Y22" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z22" s="24">
         <v>44313</v>
@@ -22240,7 +22364,7 @@
         <v>44313</v>
       </c>
       <c r="AD22" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE22" s="43">
         <v>68.49</v>
@@ -22254,7 +22378,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>13</v>
@@ -22272,10 +22396,10 @@
         <v>29</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="I23" s="24">
         <v>44279</v>
@@ -22290,19 +22414,19 @@
         <v>100000.000</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="Q23" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R23" s="23" t="s">
         <v>19</v>
@@ -22320,13 +22444,13 @@
         <v>0.050000000000</v>
       </c>
       <c r="W23" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X23" s="24">
         <v>44279</v>
       </c>
       <c r="Y23" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z23" s="24">
         <v>44313</v>
@@ -22341,7 +22465,7 @@
         <v>44300</v>
       </c>
       <c r="AD23" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE23" s="43">
         <v>15.34</v>
@@ -22355,7 +22479,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>13</v>
@@ -22373,10 +22497,10 @@
         <v>43</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="I24" s="24">
         <v>44301</v>
@@ -22391,19 +22515,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q24" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R24" s="23" t="s">
         <v>19</v>
@@ -22421,13 +22545,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W24" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X24" s="24">
         <v>44301</v>
       </c>
       <c r="Y24" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z24" s="24">
         <v>44333</v>
@@ -22442,7 +22566,7 @@
         <v>44333</v>
       </c>
       <c r="AD24" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE24" s="43">
         <v>68.5</v>
@@ -22456,7 +22580,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>13</v>
@@ -22474,10 +22598,10 @@
         <v>43</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="I25" s="24">
         <v>44313</v>
@@ -22492,19 +22616,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="N25" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q25" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R25" s="23" t="s">
         <v>19</v>
@@ -22522,13 +22646,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W25" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X25" s="24">
         <v>44313</v>
       </c>
       <c r="Y25" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z25" s="24">
         <v>44343</v>
@@ -22543,7 +22667,7 @@
         <v>44343</v>
       </c>
       <c r="AD25" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE25" s="43">
         <v>2054.8</v>
@@ -22557,7 +22681,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>13</v>
@@ -22575,10 +22699,10 @@
         <v>24</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="I26" s="24">
         <v>44314</v>
@@ -22593,19 +22717,19 @@
         <v>99166.670</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="N26" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="P26" s="23" t="s">
         <v>838</v>
       </c>
-      <c r="O26" s="23" t="s">
-        <v>831</v>
-      </c>
-      <c r="P26" s="23" t="s">
-        <v>832</v>
-      </c>
       <c r="Q26" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R26" s="23" t="s">
         <v>19</v>
@@ -22623,7 +22747,7 @@
         <v>0.060000000000</v>
       </c>
       <c r="W26" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X26" s="24">
         <v>44314</v>
@@ -22640,7 +22764,7 @@
         <v>44344</v>
       </c>
       <c r="AD26" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE26" s="43">
         <v>116.8</v>
@@ -22654,7 +22778,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>13</v>
@@ -22672,10 +22796,10 @@
         <v>24</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="I27" s="24">
         <v>44321</v>
@@ -22690,19 +22814,19 @@
         <v>98333.340</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="N27" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="P27" s="23" t="s">
         <v>838</v>
       </c>
-      <c r="O27" s="23" t="s">
-        <v>831</v>
-      </c>
-      <c r="P27" s="23" t="s">
-        <v>832</v>
-      </c>
       <c r="Q27" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R27" s="23" t="s">
         <v>19</v>
@@ -22720,7 +22844,7 @@
         <v>0.060000000000</v>
       </c>
       <c r="W27" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X27" s="24">
         <v>44321</v>
@@ -22737,7 +22861,7 @@
         <v>44354</v>
       </c>
       <c r="AD27" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE27" s="43">
         <v>106.48</v>
@@ -22751,7 +22875,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>13</v>
@@ -22769,10 +22893,10 @@
         <v>29</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="I28" s="24">
         <v>44494</v>
@@ -22787,19 +22911,19 @@
         <v>100000.000</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="N28" s="23" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="Q28" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R28" s="23" t="s">
         <v>19</v>
@@ -22813,7 +22937,7 @@
       </c>
       <c r="V28" s="22"/>
       <c r="W28" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X28" s="24">
         <v>44494</v>
@@ -22830,7 +22954,7 @@
         <v>44494</v>
       </c>
       <c r="AD28" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE28" s="43">
         <v>-140.24</v>
@@ -22844,7 +22968,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>13</v>
@@ -22862,10 +22986,10 @@
         <v>240</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="I29" s="24">
         <v>44496</v>
@@ -22880,19 +23004,19 @@
         <v>99985776.130</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="N29" s="23" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="Q29" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R29" s="23" t="s">
         <v>19</v>
@@ -22910,7 +23034,7 @@
         <v>0.020000000000</v>
       </c>
       <c r="W29" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X29" s="24">
         <v>44496</v>
@@ -22927,7 +23051,7 @@
         <v>44503</v>
       </c>
       <c r="AD29" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE29" s="43">
         <v>-11.01</v>
@@ -22941,7 +23065,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>13</v>
@@ -22959,10 +23083,10 @@
         <v>29</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="I30" s="24">
         <v>44496</v>
@@ -22977,19 +23101,19 @@
         <v>99985776.130</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="N30" s="23" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P30" s="23" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="Q30" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R30" s="23" t="s">
         <v>19</v>
@@ -23007,7 +23131,7 @@
         <v>0.020000000000</v>
       </c>
       <c r="W30" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X30" s="24">
         <v>44496</v>
@@ -23024,7 +23148,7 @@
         <v>44503</v>
       </c>
       <c r="AD30" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE30" s="43">
         <v>-11.01</v>
@@ -23038,7 +23162,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>13</v>
@@ -23056,10 +23180,10 @@
         <v>29</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="I31" s="24">
         <v>44498</v>
@@ -23074,19 +23198,19 @@
         <v>99990776.130</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="N31" s="23" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="O31" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="Q31" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R31" s="23" t="s">
         <v>19</v>
@@ -23104,7 +23228,7 @@
         <v>0.020000000000</v>
       </c>
       <c r="W31" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X31" s="24">
         <v>44501</v>
@@ -23121,7 +23245,7 @@
         <v>44508</v>
       </c>
       <c r="AD31" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE31" s="43">
         <v>-7.58</v>
@@ -23135,7 +23259,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>13</v>
@@ -23153,10 +23277,10 @@
         <v>24</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="I32" s="24">
         <v>44503</v>
@@ -23171,19 +23295,19 @@
         <v>99166.670</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="O32" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P32" s="23" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="Q32" s="37" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="R32" s="23" t="s">
         <v>19</v>
@@ -23201,7 +23325,7 @@
         <v>0.060000000000</v>
       </c>
       <c r="W32" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X32" s="24">
         <v>44503</v>
@@ -23218,7 +23342,7 @@
         <v>44533</v>
       </c>
       <c r="AD32" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE32" s="43">
         <v>116.8</v>
@@ -23232,7 +23356,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>13</v>
@@ -23250,10 +23374,10 @@
         <v>230</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="I33" s="24">
         <v>44504</v>
@@ -23268,19 +23392,19 @@
         <v>1000000.000</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="N33" s="23" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="O33" s="23" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="P33" s="23" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="Q33" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R33" s="23" t="s">
         <v>19</v>
@@ -23294,7 +23418,7 @@
       </c>
       <c r="V33" s="22"/>
       <c r="W33" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X33" s="24">
         <v>44504</v>
@@ -23311,7 +23435,7 @@
         <v>44504</v>
       </c>
       <c r="AD33" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE33" s="43">
         <v>0.11</v>
@@ -23325,7 +23449,7 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>13</v>
@@ -23343,10 +23467,10 @@
         <v>230</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="I34" s="24">
         <v>44504</v>
@@ -23361,19 +23485,19 @@
         <v>1000000.000</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="N34" s="23" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="O34" s="23" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="P34" s="23" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="Q34" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R34" s="23" t="s">
         <v>19</v>
@@ -23387,7 +23511,7 @@
       </c>
       <c r="V34" s="22"/>
       <c r="W34" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X34" s="24">
         <v>44504</v>
@@ -23404,7 +23528,7 @@
         <v>44511</v>
       </c>
       <c r="AD34" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE34" s="43">
         <v>-0.55</v>
@@ -23418,7 +23542,7 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>13</v>
@@ -23436,10 +23560,10 @@
         <v>24</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="I35" s="24">
         <v>44540</v>
@@ -23454,22 +23578,22 @@
         <v>60000000.000</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="N35" s="23" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="O35" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P35" s="23" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="Q35" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R35" s="23" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="S35" s="39">
         <v>0.000</v>
@@ -23484,13 +23608,13 @@
         <v>0.020000000000</v>
       </c>
       <c r="W35" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X35" s="24">
         <v>44627</v>
       </c>
       <c r="Y35" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z35" s="24">
         <v>44658</v>
@@ -23505,7 +23629,7 @@
         <v>44658</v>
       </c>
       <c r="AD35" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE35" s="43">
         <v>151.9</v>
@@ -23519,7 +23643,7 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>13</v>
@@ -23537,10 +23661,10 @@
         <v>24</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="I36" s="24">
         <v>44540</v>
@@ -23555,22 +23679,22 @@
         <v>60000000.000</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="N36" s="23" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="O36" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P36" s="23" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="Q36" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R36" s="23" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="S36" s="39">
         <v>0.000</v>
@@ -23585,13 +23709,13 @@
         <v>0.020000000000</v>
       </c>
       <c r="W36" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X36" s="24">
         <v>44627</v>
       </c>
       <c r="Y36" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z36" s="24">
         <v>44658</v>
@@ -23606,7 +23730,7 @@
         <v>44690</v>
       </c>
       <c r="AD36" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE36" s="43">
         <v>4405.39</v>
@@ -23620,7 +23744,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>13</v>
@@ -23638,10 +23762,10 @@
         <v>24</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="I37" s="24">
         <v>44540</v>
@@ -23656,22 +23780,22 @@
         <v>60000000.000</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="N37" s="23" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P37" s="23" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="Q37" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R37" s="23" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="S37" s="39">
         <v>0.000</v>
@@ -23686,13 +23810,13 @@
         <v>0.020000000000</v>
       </c>
       <c r="W37" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X37" s="24">
         <v>44627</v>
       </c>
       <c r="Y37" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z37" s="24">
         <v>44658</v>
@@ -23707,7 +23831,7 @@
         <v>44719</v>
       </c>
       <c r="AD37" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE37" s="43">
         <v>-4709.21</v>
@@ -23721,7 +23845,7 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>13</v>
@@ -23739,10 +23863,10 @@
         <v>24</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="I38" s="24">
         <v>44540</v>
@@ -23757,19 +23881,19 @@
         <v>60000000.000</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="N38" s="23" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q38" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R38" s="23" t="s">
         <v>19</v>
@@ -23787,13 +23911,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W38" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X38" s="24">
         <v>44704</v>
       </c>
       <c r="Y38" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z38" s="24">
         <v>44735</v>
@@ -23808,7 +23932,7 @@
         <v>44735</v>
       </c>
       <c r="AD38" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE38" s="43">
         <v>204.67</v>
@@ -23822,7 +23946,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>13</v>
@@ -23840,10 +23964,10 @@
         <v>24</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="I39" s="24">
         <v>44540</v>
@@ -23858,19 +23982,19 @@
         <v>60000000.000</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="N39" s="23" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="O39" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P39" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q39" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R39" s="23" t="s">
         <v>19</v>
@@ -23888,13 +24012,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W39" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X39" s="24">
         <v>44704</v>
       </c>
       <c r="Y39" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z39" s="24">
         <v>44735</v>
@@ -23909,7 +24033,7 @@
         <v>44767</v>
       </c>
       <c r="AD39" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE39" s="43">
         <v>5935.07</v>
@@ -23923,7 +24047,7 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>13</v>
@@ -23941,10 +24065,10 @@
         <v>24</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="I40" s="24">
         <v>44540</v>
@@ -23959,19 +24083,19 @@
         <v>60000000.000</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="N40" s="23" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="O40" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P40" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q40" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R40" s="23" t="s">
         <v>19</v>
@@ -23989,13 +24113,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W40" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X40" s="24">
         <v>44704</v>
       </c>
       <c r="Y40" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z40" s="24">
         <v>44735</v>
@@ -24010,7 +24134,7 @@
         <v>44796</v>
       </c>
       <c r="AD40" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE40" s="43">
         <v>-6344.38</v>
@@ -24024,7 +24148,7 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>13</v>
@@ -24042,10 +24166,10 @@
         <v>29</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="I41" s="24">
         <v>44553</v>
@@ -24060,19 +24184,19 @@
         <v>100000.000</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="N41" s="23" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P41" s="23" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="Q41" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R41" s="23" t="s">
         <v>19</v>
@@ -24090,13 +24214,13 @@
         <v>0.050000000000</v>
       </c>
       <c r="W41" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X41" s="24">
         <v>44553</v>
       </c>
       <c r="Y41" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z41" s="24">
         <v>44585</v>
@@ -24111,7 +24235,7 @@
         <v>44560</v>
       </c>
       <c r="AD41" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE41" s="43">
         <v>15.34</v>
@@ -24125,7 +24249,7 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>13</v>
@@ -24143,10 +24267,10 @@
         <v>29</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="I42" s="24">
         <v>44553</v>
@@ -24161,19 +24285,19 @@
         <v>100000.000</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="Q42" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R42" s="23" t="s">
         <v>19</v>
@@ -24191,13 +24315,13 @@
         <v>0.050000000000</v>
       </c>
       <c r="W42" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X42" s="24">
         <v>44553</v>
       </c>
       <c r="Y42" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z42" s="24">
         <v>44585</v>
@@ -24212,7 +24336,7 @@
         <v>44567</v>
       </c>
       <c r="AD42" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE42" s="43">
         <v>5.34</v>
@@ -24226,7 +24350,7 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>13</v>
@@ -24244,10 +24368,10 @@
         <v>29</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="I43" s="24">
         <v>44553</v>
@@ -24262,19 +24386,19 @@
         <v>100000.000</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="N43" s="23" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="O43" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="Q43" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R43" s="23" t="s">
         <v>19</v>
@@ -24292,13 +24416,13 @@
         <v>0.050000000000</v>
       </c>
       <c r="W43" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X43" s="24">
         <v>44553</v>
       </c>
       <c r="Y43" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z43" s="24">
         <v>44585</v>
@@ -24313,7 +24437,7 @@
         <v>44602</v>
       </c>
       <c r="AD43" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE43" s="43">
         <v>8.76</v>
@@ -24327,7 +24451,7 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B44" s="23" t="s">
         <v>13</v>
@@ -24345,10 +24469,10 @@
         <v>29</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="I44" s="24">
         <v>44553</v>
@@ -24363,19 +24487,19 @@
         <v>100000.000</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P44" s="23" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="Q44" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R44" s="23" t="s">
         <v>19</v>
@@ -24393,13 +24517,13 @@
         <v>0.050000000000</v>
       </c>
       <c r="W44" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X44" s="24">
         <v>44553</v>
       </c>
       <c r="Y44" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z44" s="24">
         <v>44585</v>
@@ -24414,7 +24538,7 @@
         <v>44707</v>
       </c>
       <c r="AD44" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE44" s="43">
         <v>6.57</v>
@@ -24428,7 +24552,7 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B45" s="23" t="s">
         <v>13</v>
@@ -24446,10 +24570,10 @@
         <v>29</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="I45" s="24">
         <v>44553</v>
@@ -24464,19 +24588,19 @@
         <v>100000.000</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="N45" s="23" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P45" s="23" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="Q45" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R45" s="23" t="s">
         <v>19</v>
@@ -24494,13 +24618,13 @@
         <v>0.050000000000</v>
       </c>
       <c r="W45" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X45" s="24">
         <v>44578</v>
       </c>
       <c r="Y45" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z45" s="24">
         <v>44609</v>
@@ -24515,7 +24639,7 @@
         <v>44585</v>
       </c>
       <c r="AD45" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE45" s="43">
         <v>-30.9</v>
@@ -24529,7 +24653,7 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B46" s="23" t="s">
         <v>13</v>
@@ -24547,10 +24671,10 @@
         <v>29</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="I46" s="24">
         <v>44567</v>
@@ -24565,19 +24689,19 @@
         <v>100000.000</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="N46" s="23" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="O46" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P46" s="23" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="Q46" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R46" s="23" t="s">
         <v>19</v>
@@ -24595,13 +24719,13 @@
         <v>0.050000000000</v>
       </c>
       <c r="W46" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X46" s="24">
         <v>44567</v>
       </c>
       <c r="Y46" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z46" s="24">
         <v>44599</v>
@@ -24616,7 +24740,7 @@
         <v>44602</v>
       </c>
       <c r="AD46" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE46" s="43">
         <v>8.76</v>
@@ -24630,7 +24754,7 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>13</v>
@@ -24648,10 +24772,10 @@
         <v>29</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="I47" s="24">
         <v>44599</v>
@@ -24666,19 +24790,19 @@
         <v>100000.000</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="N47" s="23" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="O47" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P47" s="23" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="Q47" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R47" s="23" t="s">
         <v>19</v>
@@ -24696,13 +24820,13 @@
         <v>0.050000000000</v>
       </c>
       <c r="W47" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X47" s="24">
         <v>44599</v>
       </c>
       <c r="Y47" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z47" s="24">
         <v>44627</v>
@@ -24717,7 +24841,7 @@
         <v>44613</v>
       </c>
       <c r="AD47" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE47" s="43">
         <v>15.34</v>
@@ -24731,7 +24855,7 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>13</v>
@@ -24749,10 +24873,10 @@
         <v>43</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="I48" s="24">
         <v>44599</v>
@@ -24767,19 +24891,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="N48" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P48" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q48" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R48" s="23" t="s">
         <v>19</v>
@@ -24797,13 +24921,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W48" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X48" s="24">
         <v>44599</v>
       </c>
       <c r="Y48" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z48" s="24">
         <v>44627</v>
@@ -24818,7 +24942,7 @@
         <v>44627</v>
       </c>
       <c r="AD48" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE48" s="43">
         <v>-1849.32</v>
@@ -24832,7 +24956,7 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B49" s="23" t="s">
         <v>13</v>
@@ -24850,10 +24974,10 @@
         <v>43</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="I49" s="24">
         <v>44658</v>
@@ -24868,19 +24992,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="N49" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O49" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P49" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q49" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R49" s="23" t="s">
         <v>19</v>
@@ -24898,13 +25022,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W49" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X49" s="24">
         <v>44658</v>
       </c>
       <c r="Y49" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z49" s="24">
         <v>44690</v>
@@ -24919,7 +25043,7 @@
         <v>44690</v>
       </c>
       <c r="AD49" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE49" s="43">
         <v>-2123.28</v>
@@ -24933,7 +25057,7 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>13</v>
@@ -24951,10 +25075,10 @@
         <v>43</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="I50" s="24">
         <v>44690</v>
@@ -24969,19 +25093,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="N50" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O50" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P50" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q50" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R50" s="23" t="s">
         <v>19</v>
@@ -24999,13 +25123,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W50" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X50" s="24">
         <v>44690</v>
       </c>
       <c r="Y50" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z50" s="24">
         <v>44721</v>
@@ -25020,7 +25144,7 @@
         <v>44721</v>
       </c>
       <c r="AD50" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE50" s="43">
         <v>-141.51</v>
@@ -25034,7 +25158,7 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>13</v>
@@ -25052,10 +25176,10 @@
         <v>43</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="I51" s="24">
         <v>44718</v>
@@ -25070,19 +25194,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="N51" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O51" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P51" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q51" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R51" s="23" t="s">
         <v>19</v>
@@ -25100,13 +25224,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W51" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X51" s="24">
         <v>44718</v>
       </c>
       <c r="Y51" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z51" s="24">
         <v>44748</v>
@@ -25121,7 +25245,7 @@
         <v>44748</v>
       </c>
       <c r="AD51" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE51" s="43">
         <v>68.5</v>
@@ -25135,7 +25259,7 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="37" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B52" s="23" t="s">
         <v>13</v>
@@ -25153,10 +25277,10 @@
         <v>43</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="I52" s="24">
         <v>44748</v>
@@ -25171,19 +25295,19 @@
         <v>50000000.000</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="N52" s="23" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="O52" s="23" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="P52" s="23" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="Q52" s="37" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="R52" s="23" t="s">
         <v>19</v>
@@ -25201,13 +25325,13 @@
         <v>0.030000000000</v>
       </c>
       <c r="W52" s="23" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="X52" s="24">
         <v>44748</v>
       </c>
       <c r="Y52" s="23" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="Z52" s="24">
         <v>44781</v>
@@ -25222,7 +25346,7 @@
         <v>44781</v>
       </c>
       <c r="AD52" s="37" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AE52" s="43">
         <v>-2191.78</v>
